--- a/Code/Results/Cases/Case_0_180/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_180/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.138247295458796</v>
+        <v>3.82101041052307</v>
       </c>
       <c r="D2">
-        <v>6.869960323335279</v>
+        <v>9.913587179101524</v>
       </c>
       <c r="E2">
-        <v>8.857646129374137</v>
+        <v>13.92254190664093</v>
       </c>
       <c r="F2">
-        <v>19.68478562476086</v>
+        <v>28.90802875049724</v>
       </c>
       <c r="G2">
-        <v>21.06687295010002</v>
+        <v>27.85331984228921</v>
       </c>
       <c r="H2">
-        <v>8.296914013553424</v>
+        <v>14.07418700545614</v>
       </c>
       <c r="I2">
-        <v>13.17347510818232</v>
+        <v>19.87782691889145</v>
       </c>
       <c r="J2">
-        <v>5.652041286149418</v>
+        <v>9.923716077852141</v>
       </c>
       <c r="K2">
-        <v>17.28437045254788</v>
+        <v>11.96212016468163</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.15808308497916</v>
+        <v>15.95276652822873</v>
       </c>
       <c r="N2">
-        <v>12.37183882110386</v>
+        <v>17.43466329006858</v>
       </c>
       <c r="O2">
-        <v>13.49909663009214</v>
+        <v>21.30072375762587</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.847112294844403</v>
+        <v>3.688339742361125</v>
       </c>
       <c r="D3">
-        <v>6.672400841933585</v>
+        <v>9.898883860528752</v>
       </c>
       <c r="E3">
-        <v>8.737148086762122</v>
+        <v>13.94012509482078</v>
       </c>
       <c r="F3">
-        <v>19.34121939890006</v>
+        <v>28.95805630891429</v>
       </c>
       <c r="G3">
-        <v>20.51792035472016</v>
+        <v>27.88608789775542</v>
       </c>
       <c r="H3">
-        <v>8.322888664867722</v>
+        <v>14.11821499009167</v>
       </c>
       <c r="I3">
-        <v>12.99186560038932</v>
+        <v>19.92072875713331</v>
       </c>
       <c r="J3">
-        <v>5.688325536488433</v>
+        <v>9.949626404663608</v>
       </c>
       <c r="K3">
-        <v>16.22634449280189</v>
+        <v>11.53576468077759</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.40899751929043</v>
+        <v>15.78908034129755</v>
       </c>
       <c r="N3">
-        <v>12.419554989492</v>
+        <v>17.46298577517745</v>
       </c>
       <c r="O3">
-        <v>13.41604146825744</v>
+        <v>21.36531929834431</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.658898507945864</v>
+        <v>3.603562927336873</v>
       </c>
       <c r="D4">
-        <v>6.550983393310888</v>
+        <v>9.891349186623698</v>
       </c>
       <c r="E4">
-        <v>8.667531243116262</v>
+        <v>13.95327599606256</v>
       </c>
       <c r="F4">
-        <v>19.1452680596431</v>
+        <v>28.99591390959203</v>
       </c>
       <c r="G4">
-        <v>20.19947837352521</v>
+        <v>27.91566989850799</v>
       </c>
       <c r="H4">
-        <v>8.344574982639887</v>
+        <v>14.14756801349818</v>
       </c>
       <c r="I4">
-        <v>12.89103541984904</v>
+        <v>19.95176989224539</v>
       </c>
       <c r="J4">
-        <v>5.71303847908511</v>
+        <v>9.966671902403034</v>
       </c>
       <c r="K4">
-        <v>15.53965271883526</v>
+        <v>11.26638721992872</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.9301641855538</v>
+        <v>15.68969374974176</v>
       </c>
       <c r="N4">
-        <v>12.45237490575933</v>
+        <v>17.48204306711567</v>
       </c>
       <c r="O4">
-        <v>13.37743082170311</v>
+        <v>21.40975639174475</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.579845833985102</v>
+        <v>3.568211111053967</v>
       </c>
       <c r="D5">
-        <v>6.50154709583005</v>
+        <v>9.888656838473596</v>
       </c>
       <c r="E5">
-        <v>8.640269843024019</v>
+        <v>13.95922735483805</v>
       </c>
       <c r="F5">
-        <v>19.06919808179968</v>
+        <v>29.01313338528085</v>
       </c>
       <c r="G5">
-        <v>20.07449114310431</v>
+        <v>27.93009699873783</v>
       </c>
       <c r="H5">
-        <v>8.354805062803347</v>
+        <v>14.16011268366748</v>
       </c>
       <c r="I5">
-        <v>12.852607303513</v>
+        <v>19.96559873357975</v>
       </c>
       <c r="J5">
-        <v>5.723707022744151</v>
+        <v>9.973904191213665</v>
       </c>
       <c r="K5">
-        <v>15.25053964849612</v>
+        <v>11.1548596308884</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.73048319745057</v>
+        <v>15.64951202926436</v>
       </c>
       <c r="N5">
-        <v>12.46661683894653</v>
+        <v>17.49022902196183</v>
       </c>
       <c r="O5">
-        <v>13.36472060573643</v>
+        <v>21.42906297725789</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.566577852959979</v>
+        <v>3.562293299222381</v>
       </c>
       <c r="D6">
-        <v>6.493342938044759</v>
+        <v>9.888232683709351</v>
       </c>
       <c r="E6">
-        <v>8.63581024314937</v>
+        <v>13.96025134601605</v>
       </c>
       <c r="F6">
-        <v>19.05679513618581</v>
+        <v>29.01610080106174</v>
       </c>
       <c r="G6">
-        <v>20.05402830487575</v>
+        <v>27.93263564253213</v>
       </c>
       <c r="H6">
-        <v>8.35658642630869</v>
+        <v>14.1622309262245</v>
       </c>
       <c r="I6">
-        <v>12.84638616767621</v>
+        <v>19.96796615657291</v>
       </c>
       <c r="J6">
-        <v>5.725514227556342</v>
+        <v>9.975122397650367</v>
       </c>
       <c r="K6">
-        <v>15.20197360347162</v>
+        <v>11.13623946445608</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.69705790463796</v>
+        <v>15.64286026348694</v>
       </c>
       <c r="N6">
-        <v>12.46903358772142</v>
+        <v>17.49161367911521</v>
       </c>
       <c r="O6">
-        <v>13.36278994695389</v>
+        <v>21.43234110379517</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.657841870868838</v>
+        <v>3.603089376796725</v>
       </c>
       <c r="D7">
-        <v>6.550316410226732</v>
+        <v>9.891311342510226</v>
       </c>
       <c r="E7">
-        <v>8.667159089878009</v>
+        <v>13.95335386003742</v>
       </c>
       <c r="F7">
-        <v>19.14422683846114</v>
+        <v>28.99613888578929</v>
       </c>
       <c r="G7">
-        <v>20.19777328097166</v>
+        <v>27.91585487313878</v>
       </c>
       <c r="H7">
-        <v>8.344707375620443</v>
+        <v>14.14773483476356</v>
       </c>
       <c r="I7">
-        <v>12.89050642951466</v>
+        <v>19.95195162109465</v>
       </c>
       <c r="J7">
-        <v>5.713179956650528</v>
+        <v>9.966768280675968</v>
       </c>
       <c r="K7">
-        <v>15.53579115179005</v>
+        <v>11.26489000532817</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.92748936114675</v>
+        <v>15.6891505029043</v>
       </c>
       <c r="N7">
-        <v>12.4525634879809</v>
+        <v>17.48215176442328</v>
       </c>
       <c r="O7">
-        <v>13.37724728794791</v>
+        <v>21.41001191961954</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.039838578610714</v>
+        <v>3.775970502048753</v>
       </c>
       <c r="D8">
-        <v>6.801907345220999</v>
+        <v>9.908209188073615</v>
       </c>
       <c r="E8">
-        <v>8.815197972919774</v>
+        <v>13.92811597893193</v>
       </c>
       <c r="F8">
-        <v>19.56322106285002</v>
+        <v>28.92379441702926</v>
       </c>
       <c r="G8">
-        <v>20.87379563506963</v>
+        <v>27.86265052381978</v>
       </c>
       <c r="H8">
-        <v>8.30464887172438</v>
+        <v>14.08888627790107</v>
       </c>
       <c r="I8">
-        <v>13.10862802008014</v>
+        <v>19.89164283009806</v>
       </c>
       <c r="J8">
-        <v>5.664038058934063</v>
+        <v>9.932414292408092</v>
       </c>
       <c r="K8">
-        <v>16.92727231276896</v>
+        <v>11.8167772142931</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.90382666237406</v>
+        <v>15.89611864886713</v>
       </c>
       <c r="N8">
-        <v>12.38754920298701</v>
+        <v>17.44408329904511</v>
       </c>
       <c r="O8">
-        <v>13.46783627466276</v>
+        <v>21.32200366454724</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.713196668701151</v>
+        <v>4.08754958741915</v>
       </c>
       <c r="D9">
-        <v>7.291433250538444</v>
+        <v>9.953070362616453</v>
       </c>
       <c r="E9">
-        <v>9.139638125567229</v>
+        <v>13.89729859500406</v>
       </c>
       <c r="F9">
-        <v>20.50281005360767</v>
+        <v>28.83870850896125</v>
       </c>
       <c r="G9">
-        <v>22.34198910617192</v>
+        <v>27.83364533407634</v>
       </c>
       <c r="H9">
-        <v>8.27389133643201</v>
+        <v>13.99189964662943</v>
       </c>
       <c r="I9">
-        <v>13.6217332273145</v>
+        <v>19.81075657838694</v>
       </c>
       <c r="J9">
-        <v>5.587661245078477</v>
+        <v>9.874048198576201</v>
       </c>
       <c r="K9">
-        <v>19.36108968497582</v>
+        <v>12.83273003723835</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.78325129512563</v>
+        <v>16.30915424418472</v>
       </c>
       <c r="N9">
-        <v>12.28886091371943</v>
+        <v>17.38262767752385</v>
       </c>
       <c r="O9">
-        <v>13.74742957968434</v>
+        <v>21.18742161802498</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6.161175038890126</v>
+        <v>4.298444482221182</v>
       </c>
       <c r="D10">
-        <v>7.645154429565054</v>
+        <v>9.992999104452256</v>
       </c>
       <c r="E10">
-        <v>9.397966097912672</v>
+        <v>13.8860221551826</v>
       </c>
       <c r="F10">
-        <v>21.26288881357516</v>
+        <v>28.81094572096221</v>
       </c>
       <c r="G10">
-        <v>23.49991037672773</v>
+        <v>27.8584920515948</v>
       </c>
       <c r="H10">
-        <v>8.283574240327715</v>
+        <v>13.93188285929636</v>
       </c>
       <c r="I10">
-        <v>14.05107798226571</v>
+        <v>19.77422618806691</v>
       </c>
       <c r="J10">
-        <v>5.544717122657898</v>
+        <v>9.836633453480742</v>
       </c>
       <c r="K10">
-        <v>20.96933463169189</v>
+        <v>13.53167414155224</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.14629385430793</v>
+        <v>16.61470260100158</v>
       </c>
       <c r="N10">
-        <v>12.23517016477907</v>
+        <v>17.34547897141247</v>
       </c>
       <c r="O10">
-        <v>14.01946181019761</v>
+        <v>21.11185764961239</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.354789737636128</v>
+        <v>4.390253657676321</v>
       </c>
       <c r="D11">
-        <v>7.804127085768638</v>
+        <v>10.01263438776058</v>
       </c>
       <c r="E11">
-        <v>9.519610467307288</v>
+        <v>13.88335319001058</v>
       </c>
       <c r="F11">
-        <v>21.62321001424203</v>
+        <v>28.80587611663303</v>
       </c>
       <c r="G11">
-        <v>24.04220425050114</v>
+        <v>27.87983182643482</v>
       </c>
       <c r="H11">
-        <v>8.295668672378632</v>
+        <v>13.90702280953067</v>
       </c>
       <c r="I11">
-        <v>14.25769948229367</v>
+        <v>19.76259588805151</v>
       </c>
       <c r="J11">
-        <v>5.528270080181864</v>
+        <v>9.820795192769992</v>
       </c>
       <c r="K11">
-        <v>21.66209658414307</v>
+        <v>13.83811478443656</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.7333929054072</v>
+        <v>16.75367551656691</v>
       </c>
       <c r="N11">
-        <v>12.21512434590123</v>
+        <v>17.33030787023764</v>
       </c>
       <c r="O11">
-        <v>14.15847068762577</v>
+        <v>21.08257195539633</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.426644725655721</v>
+        <v>4.424410625038073</v>
       </c>
       <c r="D12">
-        <v>7.863999996136357</v>
+        <v>10.02027736911547</v>
       </c>
       <c r="E12">
-        <v>9.566248886292138</v>
+        <v>13.88269551753668</v>
       </c>
       <c r="F12">
-        <v>21.76169053983208</v>
+        <v>28.80504342302913</v>
       </c>
       <c r="G12">
-        <v>24.24965797243584</v>
+        <v>27.88935404332814</v>
       </c>
       <c r="H12">
-        <v>8.301410213679569</v>
+        <v>13.89796032927901</v>
       </c>
       <c r="I12">
-        <v>14.33755440196615</v>
+        <v>19.75890971583152</v>
       </c>
       <c r="J12">
-        <v>5.522506425289431</v>
+        <v>9.814967288828862</v>
       </c>
       <c r="K12">
-        <v>21.91886693717194</v>
+        <v>13.95241531609756</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.95101246196287</v>
+        <v>16.80625768956568</v>
       </c>
       <c r="N12">
-        <v>12.20818907916016</v>
+        <v>17.32481073096079</v>
       </c>
       <c r="O12">
-        <v>14.21335742000464</v>
+        <v>21.07221597997951</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6.411234491317036</v>
+        <v>4.417081629804922</v>
       </c>
       <c r="D13">
-        <v>7.851120524185598</v>
+        <v>10.01862215371468</v>
       </c>
       <c r="E13">
-        <v>9.556179234310676</v>
+        <v>13.88282147411327</v>
       </c>
       <c r="F13">
-        <v>21.73177672242084</v>
+        <v>28.80517442007432</v>
       </c>
       <c r="G13">
-        <v>24.2048878267525</v>
+        <v>27.88723921244778</v>
       </c>
       <c r="H13">
-        <v>8.300121116955941</v>
+        <v>13.89989645906381</v>
       </c>
       <c r="I13">
-        <v>14.3202847928311</v>
+        <v>19.75967165899782</v>
       </c>
       <c r="J13">
-        <v>5.523726737833146</v>
+        <v>9.816214888683687</v>
       </c>
       <c r="K13">
-        <v>21.86381388368475</v>
+        <v>13.92787738089165</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.90435270319852</v>
+        <v>16.79493576774437</v>
       </c>
       <c r="N13">
-        <v>12.20965312362864</v>
+        <v>17.32598362661814</v>
       </c>
       <c r="O13">
-        <v>14.20143587777546</v>
+        <v>21.07441365330299</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.360730594958251</v>
+        <v>4.393076062419738</v>
       </c>
       <c r="D14">
-        <v>7.809059666739955</v>
+        <v>10.01325904540822</v>
       </c>
       <c r="E14">
-        <v>9.523436039087777</v>
+        <v>13.88329201351168</v>
       </c>
       <c r="F14">
-        <v>21.63456244877605</v>
+        <v>28.80578582712566</v>
       </c>
       <c r="G14">
-        <v>24.05923027808832</v>
+        <v>27.88058635699524</v>
       </c>
       <c r="H14">
-        <v>8.296117431644538</v>
+        <v>13.90627018772241</v>
       </c>
       <c r="I14">
-        <v>14.26423698515709</v>
+        <v>19.76227823224749</v>
       </c>
       <c r="J14">
-        <v>5.527786471447656</v>
+        <v>9.820312327968356</v>
       </c>
       <c r="K14">
-        <v>21.68333259382559</v>
+        <v>13.84755372357207</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.75139061203858</v>
+        <v>16.75800259274785</v>
       </c>
       <c r="N14">
-        <v>12.21454048314778</v>
+        <v>17.329850654244</v>
       </c>
       <c r="O14">
-        <v>14.16294094096817</v>
+        <v>21.08170524352877</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.3296050644609</v>
+        <v>4.378292200617486</v>
       </c>
       <c r="D15">
-        <v>7.783252315399664</v>
+        <v>10.0100008881158</v>
       </c>
       <c r="E15">
-        <v>9.503454103687908</v>
+        <v>13.88362617664624</v>
       </c>
       <c r="F15">
-        <v>21.57527913084292</v>
+        <v>28.80630188427673</v>
       </c>
       <c r="G15">
-        <v>23.97028025582918</v>
+        <v>27.87669890099189</v>
       </c>
       <c r="H15">
-        <v>8.293817995949277</v>
+        <v>13.91022006363863</v>
       </c>
       <c r="I15">
-        <v>14.23011550849334</v>
+        <v>19.76396835063223</v>
       </c>
       <c r="J15">
-        <v>5.530334287518873</v>
+        <v>9.822844220554822</v>
       </c>
       <c r="K15">
-        <v>21.57205878975329</v>
+        <v>13.79812394413508</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.65708570990651</v>
+        <v>16.73537305144695</v>
       </c>
       <c r="N15">
-        <v>12.21762031295063</v>
+        <v>17.33225157511668</v>
       </c>
       <c r="O15">
-        <v>14.13965575813511</v>
+        <v>21.08626718577091</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.148317108719318</v>
+        <v>4.292360090656187</v>
       </c>
       <c r="D16">
-        <v>7.634721981098728</v>
+        <v>9.991745159497405</v>
       </c>
       <c r="E16">
-        <v>9.39009778564945</v>
+        <v>13.88624602606723</v>
       </c>
       <c r="F16">
-        <v>21.23962891425229</v>
+        <v>28.8114291685159</v>
       </c>
       <c r="G16">
-        <v>23.46477113971846</v>
+        <v>27.85729928776682</v>
       </c>
       <c r="H16">
-        <v>8.282943354363562</v>
+        <v>13.93355668847082</v>
       </c>
       <c r="I16">
-        <v>14.03780120463547</v>
+        <v>19.77508669214317</v>
       </c>
       <c r="J16">
-        <v>5.545855840174794</v>
+        <v>9.837692282059452</v>
       </c>
       <c r="K16">
-        <v>20.92328116802494</v>
+        <v>13.51140822090114</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.1072654755667</v>
+        <v>16.60561645436865</v>
       </c>
       <c r="N16">
-        <v>12.23657050609743</v>
+        <v>17.34650515447267</v>
       </c>
       <c r="O16">
-        <v>14.01068899806993</v>
+        <v>21.11387412344347</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.034496519843265</v>
+        <v>4.238574479018684</v>
       </c>
       <c r="D17">
-        <v>7.543071375946868</v>
+        <v>9.980919917591065</v>
       </c>
       <c r="E17">
-        <v>9.321601223944331</v>
+        <v>13.88848292197714</v>
       </c>
       <c r="F17">
-        <v>21.03740552118752</v>
+        <v>28.81651105605722</v>
       </c>
       <c r="G17">
-        <v>23.15853969760273</v>
+        <v>27.84796811865266</v>
       </c>
       <c r="H17">
-        <v>8.278281389732497</v>
+        <v>13.94849862469639</v>
       </c>
       <c r="I17">
-        <v>13.92271020572239</v>
+        <v>19.78318553406851</v>
       </c>
       <c r="J17">
-        <v>5.556182996887681</v>
+        <v>9.847103616891344</v>
       </c>
       <c r="K17">
-        <v>20.51534297905459</v>
+        <v>13.33250369914085</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.76155301338584</v>
+        <v>16.52598011949366</v>
       </c>
       <c r="N17">
-        <v>12.24933535111727</v>
+        <v>17.35569138406479</v>
       </c>
       <c r="O17">
-        <v>13.93552039102185</v>
+        <v>21.13211501020133</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.968072205451156</v>
+        <v>4.207250660410045</v>
       </c>
       <c r="D18">
-        <v>7.490176583223501</v>
+        <v>9.974832286904423</v>
       </c>
       <c r="E18">
-        <v>9.282593711112389</v>
+        <v>13.8900012025277</v>
       </c>
       <c r="F18">
-        <v>20.92246586279272</v>
+        <v>28.82014563980877</v>
       </c>
       <c r="G18">
-        <v>22.9838748338779</v>
+        <v>27.84354603213076</v>
       </c>
       <c r="H18">
-        <v>8.276320392079315</v>
+        <v>13.9573226537136</v>
       </c>
       <c r="I18">
-        <v>13.8575786401959</v>
+        <v>19.78831320461218</v>
       </c>
       <c r="J18">
-        <v>5.562412322114276</v>
+        <v>9.852628028163316</v>
       </c>
       <c r="K18">
-        <v>20.27705050326046</v>
+        <v>13.22852334924063</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.55960396685535</v>
+        <v>16.4801756777597</v>
       </c>
       <c r="N18">
-        <v>12.25708782592943</v>
+        <v>17.36113775049613</v>
       </c>
       <c r="O18">
-        <v>13.89371908199345</v>
+        <v>21.1430855468262</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.945417624780539</v>
+        <v>4.196578866012269</v>
       </c>
       <c r="D19">
-        <v>7.472237992620581</v>
+        <v>9.972795072866361</v>
       </c>
       <c r="E19">
-        <v>9.269453995757488</v>
+        <v>13.89055508023677</v>
       </c>
       <c r="F19">
-        <v>20.88378700824471</v>
+        <v>28.82149845707488</v>
       </c>
       <c r="G19">
-        <v>22.92499335926189</v>
+        <v>27.84221111652078</v>
       </c>
       <c r="H19">
-        <v>8.275778464698313</v>
+        <v>13.96034977996182</v>
       </c>
       <c r="I19">
-        <v>13.83570964047317</v>
+        <v>19.7901299413585</v>
       </c>
       <c r="J19">
-        <v>5.564570568960155</v>
+        <v>9.854517615763204</v>
       </c>
       <c r="K19">
-        <v>20.19574010047472</v>
+        <v>13.1931348532272</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.49069323768927</v>
+        <v>16.46466837495623</v>
       </c>
       <c r="N19">
-        <v>12.25978240815412</v>
+        <v>17.36300975890413</v>
       </c>
       <c r="O19">
-        <v>13.87981038659707</v>
+        <v>21.14688215874783</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>6.046712043920087</v>
+        <v>4.244340300245135</v>
       </c>
       <c r="D20">
-        <v>7.552846712741264</v>
+        <v>9.982057950542478</v>
       </c>
       <c r="E20">
-        <v>9.32885258816472</v>
+        <v>13.88822082850587</v>
       </c>
       <c r="F20">
-        <v>21.05879077726978</v>
+        <v>28.8158964286967</v>
       </c>
       <c r="G20">
-        <v>23.1909873032367</v>
+        <v>27.84886364666187</v>
       </c>
       <c r="H20">
-        <v>8.278702695885645</v>
+        <v>13.9468842417937</v>
       </c>
       <c r="I20">
-        <v>13.93485163509153</v>
+        <v>19.78227480741447</v>
       </c>
       <c r="J20">
-        <v>5.555053555605468</v>
+        <v>9.84609025104603</v>
       </c>
       <c r="K20">
-        <v>20.55914707175542</v>
+        <v>13.35166074545102</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.79867572968302</v>
+        <v>16.5344578113303</v>
       </c>
       <c r="N20">
-        <v>12.24793384472414</v>
+        <v>17.35469666120589</v>
       </c>
       <c r="O20">
-        <v>13.9433734314427</v>
+        <v>21.13012366028376</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6.375604496194576</v>
+        <v>4.400143725953599</v>
       </c>
       <c r="D21">
-        <v>7.821423178782264</v>
+        <v>10.01482872166276</v>
       </c>
       <c r="E21">
-        <v>9.533038077099738</v>
+        <v>13.88314423168829</v>
       </c>
       <c r="F21">
-        <v>21.66306188486751</v>
+        <v>28.80557674373521</v>
       </c>
       <c r="G21">
-        <v>24.10195751086624</v>
+        <v>27.88250137029771</v>
       </c>
       <c r="H21">
-        <v>8.297261439554598</v>
+        <v>13.90438852737514</v>
       </c>
       <c r="I21">
-        <v>14.28065597117873</v>
+        <v>19.76149312881866</v>
       </c>
       <c r="J21">
-        <v>5.526581255747958</v>
+        <v>9.819104207072538</v>
       </c>
       <c r="K21">
-        <v>21.73649511676968</v>
+        <v>13.87119463686322</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.79644659026034</v>
+        <v>16.76885227206982</v>
       </c>
       <c r="N21">
-        <v>12.21308693877767</v>
+        <v>17.32870809380544</v>
       </c>
       <c r="O21">
-        <v>14.17418646756037</v>
+        <v>21.07954359345435</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.58203089777537</v>
+        <v>4.498413757772483</v>
       </c>
       <c r="D22">
-        <v>7.995031505452409</v>
+        <v>10.03745389458067</v>
       </c>
       <c r="E22">
-        <v>9.66982388426109</v>
+        <v>13.88188347364028</v>
       </c>
       <c r="F22">
-        <v>22.06982099272897</v>
+        <v>28.80516787030503</v>
       </c>
       <c r="G22">
-        <v>24.70950737631794</v>
+        <v>27.91288437093014</v>
       </c>
       <c r="H22">
-        <v>8.316187418070799</v>
+        <v>13.87866396976382</v>
       </c>
       <c r="I22">
-        <v>14.51604558363402</v>
+        <v>19.75209605922799</v>
       </c>
       <c r="J22">
-        <v>5.510690540345429</v>
+        <v>9.802456303642582</v>
       </c>
       <c r="K22">
-        <v>22.47354560429048</v>
+        <v>14.20055452761983</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.42115932906308</v>
+        <v>16.92176864989127</v>
       </c>
       <c r="N22">
-        <v>12.19414715361325</v>
+        <v>17.31316728259362</v>
       </c>
       <c r="O22">
-        <v>14.33815336392308</v>
+        <v>21.05076505938273</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>6.472636446335233</v>
+        <v>4.44629522272847</v>
       </c>
       <c r="D23">
-        <v>7.902563759377812</v>
+        <v>10.02526932116793</v>
       </c>
       <c r="E23">
-        <v>9.596519628221742</v>
+        <v>13.88236845927866</v>
       </c>
       <c r="F23">
-        <v>21.85166260096284</v>
+        <v>28.80480659121179</v>
       </c>
       <c r="G23">
-        <v>24.38417466522101</v>
+        <v>27.89590103812813</v>
       </c>
       <c r="H23">
-        <v>8.305445931918452</v>
+        <v>13.89220607174597</v>
       </c>
       <c r="I23">
-        <v>14.38956037711884</v>
+        <v>19.75672837562027</v>
       </c>
       <c r="J23">
-        <v>5.518916048445061</v>
+        <v>9.811251188817293</v>
       </c>
       <c r="K23">
-        <v>22.0831252095303</v>
+        <v>14.02572666262286</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.0902314052539</v>
+        <v>16.84019260575626</v>
       </c>
       <c r="N23">
-        <v>12.20389584221202</v>
+        <v>17.32132977881135</v>
       </c>
       <c r="O23">
-        <v>14.24942534056377</v>
+        <v>21.06573257518261</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>6.041192480815984</v>
+        <v>4.241734822650385</v>
       </c>
       <c r="D24">
-        <v>7.548427913555742</v>
+        <v>9.981543022093396</v>
       </c>
       <c r="E24">
-        <v>9.325573085992122</v>
+        <v>13.8883385974447</v>
       </c>
       <c r="F24">
-        <v>21.04911838308526</v>
+        <v>28.81617208098329</v>
       </c>
       <c r="G24">
-        <v>23.176313395413</v>
+        <v>27.84845584242412</v>
       </c>
       <c r="H24">
-        <v>8.278509987374113</v>
+        <v>13.94761337633012</v>
       </c>
       <c r="I24">
-        <v>13.9293592675581</v>
+        <v>19.78268507818964</v>
       </c>
       <c r="J24">
-        <v>5.555563267695319</v>
+        <v>9.846548039530036</v>
       </c>
       <c r="K24">
-        <v>20.53935496505181</v>
+        <v>13.34300334461443</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.78190250207997</v>
+        <v>16.53062510744387</v>
       </c>
       <c r="N24">
-        <v>12.24856617883958</v>
+        <v>17.35514586114284</v>
       </c>
       <c r="O24">
-        <v>13.93981867126125</v>
+        <v>21.13102244333454</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.53921952038625</v>
+        <v>4.006341365750074</v>
       </c>
       <c r="D25">
-        <v>7.159804805947062</v>
+        <v>9.939696524130152</v>
       </c>
       <c r="E25">
-        <v>9.048294496161411</v>
+        <v>13.90363773805988</v>
       </c>
       <c r="F25">
-        <v>20.23618542822985</v>
+        <v>28.85563109131682</v>
       </c>
       <c r="G25">
-        <v>21.93031091672849</v>
+        <v>27.83339651704417</v>
       </c>
       <c r="H25">
-        <v>8.27677220408787</v>
+        <v>14.01616425657591</v>
       </c>
       <c r="I25">
-        <v>13.47372287771495</v>
+        <v>19.82862411539255</v>
       </c>
       <c r="J25">
-        <v>5.606084836507804</v>
+        <v>9.888876239267125</v>
       </c>
       <c r="K25">
-        <v>18.7343008050075</v>
+        <v>12.56576901347881</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.25184888034598</v>
+        <v>16.19688487238862</v>
       </c>
       <c r="N25">
-        <v>12.31234966563031</v>
+        <v>17.39784463475124</v>
       </c>
       <c r="O25">
-        <v>13.66038628500626</v>
+        <v>21.21974546932175</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_180/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_180/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.82101041052307</v>
+        <v>5.138247295458712</v>
       </c>
       <c r="D2">
-        <v>9.913587179101524</v>
+        <v>6.869960323335189</v>
       </c>
       <c r="E2">
-        <v>13.92254190664093</v>
+        <v>8.857646129374084</v>
       </c>
       <c r="F2">
-        <v>28.90802875049724</v>
+        <v>19.68478562476072</v>
       </c>
       <c r="G2">
-        <v>27.85331984228921</v>
+        <v>21.06687295009994</v>
       </c>
       <c r="H2">
-        <v>14.07418700545614</v>
+        <v>8.296914013553316</v>
       </c>
       <c r="I2">
-        <v>19.87782691889145</v>
+        <v>13.17347510818224</v>
       </c>
       <c r="J2">
-        <v>9.923716077852141</v>
+        <v>5.652041286149418</v>
       </c>
       <c r="K2">
-        <v>11.96212016468163</v>
+        <v>17.28437045254792</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.95276652822873</v>
+        <v>14.15808308497915</v>
       </c>
       <c r="N2">
-        <v>17.43466329006858</v>
+        <v>12.37183882110383</v>
       </c>
       <c r="O2">
-        <v>21.30072375762587</v>
+        <v>13.49909663009204</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.688339742361125</v>
+        <v>4.84711229484456</v>
       </c>
       <c r="D3">
-        <v>9.898883860528752</v>
+        <v>6.672400841933627</v>
       </c>
       <c r="E3">
-        <v>13.94012509482078</v>
+        <v>8.737148086762135</v>
       </c>
       <c r="F3">
-        <v>28.95805630891429</v>
+        <v>19.34121939890002</v>
       </c>
       <c r="G3">
-        <v>27.88608789775542</v>
+        <v>20.51792035472008</v>
       </c>
       <c r="H3">
-        <v>14.11821499009167</v>
+        <v>8.322888664867717</v>
       </c>
       <c r="I3">
-        <v>19.92072875713331</v>
+        <v>12.99186560038925</v>
       </c>
       <c r="J3">
-        <v>9.949626404663608</v>
+        <v>5.688325536488434</v>
       </c>
       <c r="K3">
-        <v>11.53576468077759</v>
+        <v>16.22634449280189</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.78908034129755</v>
+        <v>13.40899751929041</v>
       </c>
       <c r="N3">
-        <v>17.46298577517745</v>
+        <v>12.419554989492</v>
       </c>
       <c r="O3">
-        <v>21.36531929834431</v>
+        <v>13.41604146825739</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.603562927336873</v>
+        <v>4.658898507945864</v>
       </c>
       <c r="D4">
-        <v>9.891349186623698</v>
+        <v>6.550983393310779</v>
       </c>
       <c r="E4">
-        <v>13.95327599606256</v>
+        <v>8.667531243116221</v>
       </c>
       <c r="F4">
-        <v>28.99591390959203</v>
+        <v>19.14526805964319</v>
       </c>
       <c r="G4">
-        <v>27.91566989850799</v>
+        <v>20.1994783735255</v>
       </c>
       <c r="H4">
-        <v>14.14756801349818</v>
+        <v>8.344574982639944</v>
       </c>
       <c r="I4">
-        <v>19.95176989224539</v>
+        <v>12.89103541984917</v>
       </c>
       <c r="J4">
-        <v>9.966671902403034</v>
+        <v>5.713038479085146</v>
       </c>
       <c r="K4">
-        <v>11.26638721992872</v>
+        <v>15.53965271883517</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.68969374974176</v>
+        <v>12.93016418555384</v>
       </c>
       <c r="N4">
-        <v>17.48204306711567</v>
+        <v>12.45237490575933</v>
       </c>
       <c r="O4">
-        <v>21.40975639174475</v>
+        <v>13.37743082170328</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.568211111053967</v>
+        <v>4.57984583398519</v>
       </c>
       <c r="D5">
-        <v>9.888656838473596</v>
+        <v>6.501547095829947</v>
       </c>
       <c r="E5">
-        <v>13.95922735483805</v>
+        <v>8.640269843023951</v>
       </c>
       <c r="F5">
-        <v>29.01313338528085</v>
+        <v>19.06919808179978</v>
       </c>
       <c r="G5">
-        <v>27.93009699873783</v>
+        <v>20.07449114310458</v>
       </c>
       <c r="H5">
-        <v>14.16011268366748</v>
+        <v>8.354805062803401</v>
       </c>
       <c r="I5">
-        <v>19.96559873357975</v>
+        <v>12.85260730351312</v>
       </c>
       <c r="J5">
-        <v>9.973904191213665</v>
+        <v>5.72370702274415</v>
       </c>
       <c r="K5">
-        <v>11.1548596308884</v>
+        <v>15.25053964849608</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.64951202926436</v>
+        <v>12.73048319745059</v>
       </c>
       <c r="N5">
-        <v>17.49022902196183</v>
+        <v>12.46661683894659</v>
       </c>
       <c r="O5">
-        <v>21.42906297725789</v>
+        <v>13.36472060573657</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.562293299222381</v>
+        <v>4.566577852959964</v>
       </c>
       <c r="D6">
-        <v>9.888232683709351</v>
+        <v>6.493342938044648</v>
       </c>
       <c r="E6">
-        <v>13.96025134601605</v>
+        <v>8.635810243149265</v>
       </c>
       <c r="F6">
-        <v>29.01610080106174</v>
+        <v>19.05679513618581</v>
       </c>
       <c r="G6">
-        <v>27.93263564253213</v>
+        <v>20.054028304876</v>
       </c>
       <c r="H6">
-        <v>14.1622309262245</v>
+        <v>8.356586426308683</v>
       </c>
       <c r="I6">
-        <v>19.96796615657291</v>
+        <v>12.84638616767628</v>
       </c>
       <c r="J6">
-        <v>9.975122397650367</v>
+        <v>5.725514227556283</v>
       </c>
       <c r="K6">
-        <v>11.13623946445608</v>
+        <v>15.2019736034716</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.64286026348694</v>
+        <v>12.69705790463794</v>
       </c>
       <c r="N6">
-        <v>17.49161367911521</v>
+        <v>12.46903358772142</v>
       </c>
       <c r="O6">
-        <v>21.43234110379517</v>
+        <v>13.36278994695394</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.603089376796725</v>
+        <v>4.657841870868824</v>
       </c>
       <c r="D7">
-        <v>9.891311342510226</v>
+        <v>6.55031641022668</v>
       </c>
       <c r="E7">
-        <v>13.95335386003742</v>
+        <v>8.66715908987806</v>
       </c>
       <c r="F7">
-        <v>28.99613888578929</v>
+        <v>19.14422683846112</v>
       </c>
       <c r="G7">
-        <v>27.91585487313878</v>
+        <v>20.19777328097163</v>
       </c>
       <c r="H7">
-        <v>14.14773483476356</v>
+        <v>8.344707375620436</v>
       </c>
       <c r="I7">
-        <v>19.95195162109465</v>
+        <v>12.89050642951464</v>
       </c>
       <c r="J7">
-        <v>9.966768280675968</v>
+        <v>5.713179956650528</v>
       </c>
       <c r="K7">
-        <v>11.26489000532817</v>
+        <v>15.53579115179004</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.6891505029043</v>
+        <v>12.92748936114674</v>
       </c>
       <c r="N7">
-        <v>17.48215176442328</v>
+        <v>12.4525634879809</v>
       </c>
       <c r="O7">
-        <v>21.41001191961954</v>
+        <v>13.3772472879479</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.775970502048753</v>
+        <v>5.039838578610728</v>
       </c>
       <c r="D8">
-        <v>9.908209188073615</v>
+        <v>6.801907345220942</v>
       </c>
       <c r="E8">
-        <v>13.92811597893193</v>
+        <v>8.815197972919824</v>
       </c>
       <c r="F8">
-        <v>28.92379441702926</v>
+        <v>19.56322106285008</v>
       </c>
       <c r="G8">
-        <v>27.86265052381978</v>
+        <v>20.87379563506975</v>
       </c>
       <c r="H8">
-        <v>14.08888627790107</v>
+        <v>8.304648871724384</v>
       </c>
       <c r="I8">
-        <v>19.89164283009806</v>
+        <v>13.10862802008024</v>
       </c>
       <c r="J8">
-        <v>9.932414292408092</v>
+        <v>5.664038058934148</v>
       </c>
       <c r="K8">
-        <v>11.8167772142931</v>
+        <v>16.92727231276894</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.89611864886713</v>
+        <v>13.90382666237407</v>
       </c>
       <c r="N8">
-        <v>17.44408329904511</v>
+        <v>12.38754920298707</v>
       </c>
       <c r="O8">
-        <v>21.32200366454724</v>
+        <v>13.46783627466287</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.08754958741915</v>
+        <v>5.713196668701166</v>
       </c>
       <c r="D9">
-        <v>9.953070362616453</v>
+        <v>7.291433250538387</v>
       </c>
       <c r="E9">
-        <v>13.89729859500406</v>
+        <v>9.139638125567238</v>
       </c>
       <c r="F9">
-        <v>28.83870850896125</v>
+        <v>20.50281005360755</v>
       </c>
       <c r="G9">
-        <v>27.83364533407634</v>
+        <v>22.3419891061718</v>
       </c>
       <c r="H9">
-        <v>13.99189964662943</v>
+        <v>8.273891336431948</v>
       </c>
       <c r="I9">
-        <v>19.81075657838694</v>
+        <v>13.62173322731442</v>
       </c>
       <c r="J9">
-        <v>9.874048198576201</v>
+        <v>5.587661245078509</v>
       </c>
       <c r="K9">
-        <v>12.83273003723835</v>
+        <v>19.36108968497583</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.30915424418472</v>
+        <v>15.78325129512564</v>
       </c>
       <c r="N9">
-        <v>17.38262767752385</v>
+        <v>12.28886091371941</v>
       </c>
       <c r="O9">
-        <v>21.18742161802498</v>
+        <v>13.74742957968426</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.298444482221182</v>
+        <v>6.161175038890096</v>
       </c>
       <c r="D10">
-        <v>9.992999104452256</v>
+        <v>7.645154429565072</v>
       </c>
       <c r="E10">
-        <v>13.8860221551826</v>
+        <v>9.397966097912661</v>
       </c>
       <c r="F10">
-        <v>28.81094572096221</v>
+        <v>21.26288881357515</v>
       </c>
       <c r="G10">
-        <v>27.8584920515948</v>
+        <v>23.49991037672772</v>
       </c>
       <c r="H10">
-        <v>13.93188285929636</v>
+        <v>8.28357424032772</v>
       </c>
       <c r="I10">
-        <v>19.77422618806691</v>
+        <v>14.05107798226568</v>
       </c>
       <c r="J10">
-        <v>9.836633453480742</v>
+        <v>5.544717122657869</v>
       </c>
       <c r="K10">
-        <v>13.53167414155224</v>
+        <v>20.96933463169189</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.61470260100158</v>
+        <v>17.14629385430794</v>
       </c>
       <c r="N10">
-        <v>17.34547897141247</v>
+        <v>12.23517016477903</v>
       </c>
       <c r="O10">
-        <v>21.11185764961239</v>
+        <v>14.01946181019761</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.390253657676321</v>
+        <v>6.354789737636002</v>
       </c>
       <c r="D11">
-        <v>10.01263438776058</v>
+        <v>7.804127085768709</v>
       </c>
       <c r="E11">
-        <v>13.88335319001058</v>
+        <v>9.519610467307356</v>
       </c>
       <c r="F11">
-        <v>28.80587611663303</v>
+        <v>21.62321001424208</v>
       </c>
       <c r="G11">
-        <v>27.87983182643482</v>
+        <v>24.04220425050115</v>
       </c>
       <c r="H11">
-        <v>13.90702280953067</v>
+        <v>8.295668672378627</v>
       </c>
       <c r="I11">
-        <v>19.76259588805151</v>
+        <v>14.25769948229371</v>
       </c>
       <c r="J11">
-        <v>9.820795192769992</v>
+        <v>5.528270080181915</v>
       </c>
       <c r="K11">
-        <v>13.83811478443656</v>
+        <v>21.66209658414303</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.75367551656691</v>
+        <v>17.73339290540715</v>
       </c>
       <c r="N11">
-        <v>17.33030787023764</v>
+        <v>12.21512434590126</v>
       </c>
       <c r="O11">
-        <v>21.08257195539633</v>
+        <v>14.1584706876258</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.424410625038073</v>
+        <v>6.426644725655891</v>
       </c>
       <c r="D12">
-        <v>10.02027736911547</v>
+        <v>7.863999996136418</v>
       </c>
       <c r="E12">
-        <v>13.88269551753668</v>
+        <v>9.566248886292179</v>
       </c>
       <c r="F12">
-        <v>28.80504342302913</v>
+        <v>21.7616905398321</v>
       </c>
       <c r="G12">
-        <v>27.88935404332814</v>
+        <v>24.24965797243582</v>
       </c>
       <c r="H12">
-        <v>13.89796032927901</v>
+        <v>8.301410213679564</v>
       </c>
       <c r="I12">
-        <v>19.75890971583152</v>
+        <v>14.3375544019661</v>
       </c>
       <c r="J12">
-        <v>9.814967288828862</v>
+        <v>5.522506425289431</v>
       </c>
       <c r="K12">
-        <v>13.95241531609756</v>
+        <v>21.91886693717193</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.80625768956568</v>
+        <v>17.95101246196286</v>
       </c>
       <c r="N12">
-        <v>17.32481073096079</v>
+        <v>12.20818907916016</v>
       </c>
       <c r="O12">
-        <v>21.07221597997951</v>
+        <v>14.21335742000462</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.417081629804922</v>
+        <v>6.411234491317126</v>
       </c>
       <c r="D13">
-        <v>10.01862215371468</v>
+        <v>7.851120524185598</v>
       </c>
       <c r="E13">
-        <v>13.88282147411327</v>
+        <v>9.556179234310672</v>
       </c>
       <c r="F13">
-        <v>28.80517442007432</v>
+        <v>21.73177672242083</v>
       </c>
       <c r="G13">
-        <v>27.88723921244778</v>
+        <v>24.20488782675253</v>
       </c>
       <c r="H13">
-        <v>13.89989645906381</v>
+        <v>8.300121116955895</v>
       </c>
       <c r="I13">
-        <v>19.75967165899782</v>
+        <v>14.32028479283108</v>
       </c>
       <c r="J13">
-        <v>9.816214888683687</v>
+        <v>5.523726737833148</v>
       </c>
       <c r="K13">
-        <v>13.92787738089165</v>
+        <v>21.86381388368475</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.79493576774437</v>
+        <v>17.90435270319851</v>
       </c>
       <c r="N13">
-        <v>17.32598362661814</v>
+        <v>12.20965312362864</v>
       </c>
       <c r="O13">
-        <v>21.07441365330299</v>
+        <v>14.20143587777546</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.393076062419738</v>
+        <v>6.360730594958174</v>
       </c>
       <c r="D14">
-        <v>10.01325904540822</v>
+        <v>7.809059666740023</v>
       </c>
       <c r="E14">
-        <v>13.88329201351168</v>
+        <v>9.523436039087887</v>
       </c>
       <c r="F14">
-        <v>28.80578582712566</v>
+        <v>21.63456244877608</v>
       </c>
       <c r="G14">
-        <v>27.88058635699524</v>
+        <v>24.05923027808831</v>
       </c>
       <c r="H14">
-        <v>13.90627018772241</v>
+        <v>8.296117431644538</v>
       </c>
       <c r="I14">
-        <v>19.76227823224749</v>
+        <v>14.26423698515711</v>
       </c>
       <c r="J14">
-        <v>9.820312327968356</v>
+        <v>5.527786471447682</v>
       </c>
       <c r="K14">
-        <v>13.84755372357207</v>
+        <v>21.68333259382559</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.75800259274785</v>
+        <v>17.75139061203857</v>
       </c>
       <c r="N14">
-        <v>17.329850654244</v>
+        <v>12.21454048314778</v>
       </c>
       <c r="O14">
-        <v>21.08170524352877</v>
+        <v>14.16294094096817</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.378292200617486</v>
+        <v>6.329605064460899</v>
       </c>
       <c r="D15">
-        <v>10.0100008881158</v>
+        <v>7.783252315399738</v>
       </c>
       <c r="E15">
-        <v>13.88362617664624</v>
+        <v>9.503454103687952</v>
       </c>
       <c r="F15">
-        <v>28.80630188427673</v>
+        <v>21.57527913084303</v>
       </c>
       <c r="G15">
-        <v>27.87669890099189</v>
+        <v>23.97028025582926</v>
       </c>
       <c r="H15">
-        <v>13.91022006363863</v>
+        <v>8.293817995949318</v>
       </c>
       <c r="I15">
-        <v>19.76396835063223</v>
+        <v>14.23011550849342</v>
       </c>
       <c r="J15">
-        <v>9.822844220554822</v>
+        <v>5.530334287518816</v>
       </c>
       <c r="K15">
-        <v>13.79812394413508</v>
+        <v>21.57205878975323</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.73537305144695</v>
+        <v>17.65708570990648</v>
       </c>
       <c r="N15">
-        <v>17.33225157511668</v>
+        <v>12.21762031295066</v>
       </c>
       <c r="O15">
-        <v>21.08626718577091</v>
+        <v>14.13965575813519</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.292360090656187</v>
+        <v>6.148317108719381</v>
       </c>
       <c r="D16">
-        <v>9.991745159497405</v>
+        <v>7.634721981098696</v>
       </c>
       <c r="E16">
-        <v>13.88624602606723</v>
+        <v>9.390097785649493</v>
       </c>
       <c r="F16">
-        <v>28.8114291685159</v>
+        <v>21.23962891425238</v>
       </c>
       <c r="G16">
-        <v>27.85729928776682</v>
+        <v>23.46477113971856</v>
       </c>
       <c r="H16">
-        <v>13.93355668847082</v>
+        <v>8.282943354363621</v>
       </c>
       <c r="I16">
-        <v>19.77508669214317</v>
+        <v>14.03780120463552</v>
       </c>
       <c r="J16">
-        <v>9.837692282059452</v>
+        <v>5.545855840174822</v>
       </c>
       <c r="K16">
-        <v>13.51140822090114</v>
+        <v>20.9232811680249</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.60561645436865</v>
+        <v>17.10726547556667</v>
       </c>
       <c r="N16">
-        <v>17.34650515447267</v>
+        <v>12.23657050609748</v>
       </c>
       <c r="O16">
-        <v>21.11387412344347</v>
+        <v>14.01068899807002</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.238574479018684</v>
+        <v>6.034496519843295</v>
       </c>
       <c r="D17">
-        <v>9.980919917591065</v>
+        <v>7.543071375946843</v>
       </c>
       <c r="E17">
-        <v>13.88848292197714</v>
+        <v>9.321601223944338</v>
       </c>
       <c r="F17">
-        <v>28.81651105605722</v>
+        <v>21.03740552118739</v>
       </c>
       <c r="G17">
-        <v>27.84796811865266</v>
+        <v>23.15853969760258</v>
       </c>
       <c r="H17">
-        <v>13.94849862469639</v>
+        <v>8.27828138973244</v>
       </c>
       <c r="I17">
-        <v>19.78318553406851</v>
+        <v>13.92271020572229</v>
       </c>
       <c r="J17">
-        <v>9.847103616891344</v>
+        <v>5.556182996887711</v>
       </c>
       <c r="K17">
-        <v>13.33250369914085</v>
+        <v>20.51534297905466</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.52598011949366</v>
+        <v>16.76155301338586</v>
       </c>
       <c r="N17">
-        <v>17.35569138406479</v>
+        <v>12.24933535111725</v>
       </c>
       <c r="O17">
-        <v>21.13211501020133</v>
+        <v>13.93552039102171</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.207250660410045</v>
+        <v>5.968072205451206</v>
       </c>
       <c r="D18">
-        <v>9.974832286904423</v>
+        <v>7.490176583223475</v>
       </c>
       <c r="E18">
-        <v>13.8900012025277</v>
+        <v>9.28259371111243</v>
       </c>
       <c r="F18">
-        <v>28.82014563980877</v>
+        <v>20.92246586279267</v>
       </c>
       <c r="G18">
-        <v>27.84354603213076</v>
+        <v>22.98387483387795</v>
       </c>
       <c r="H18">
-        <v>13.9573226537136</v>
+        <v>8.276320392079221</v>
       </c>
       <c r="I18">
-        <v>19.78831320461218</v>
+        <v>13.85757864019586</v>
       </c>
       <c r="J18">
-        <v>9.852628028163316</v>
+        <v>5.562412322114309</v>
       </c>
       <c r="K18">
-        <v>13.22852334924063</v>
+        <v>20.27705050326051</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.4801756777597</v>
+        <v>16.55960396685537</v>
       </c>
       <c r="N18">
-        <v>17.36113775049613</v>
+        <v>12.25708782592943</v>
       </c>
       <c r="O18">
-        <v>21.1430855468262</v>
+        <v>13.8937190819934</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.196578866012269</v>
+        <v>5.945417624780415</v>
       </c>
       <c r="D19">
-        <v>9.972795072866361</v>
+        <v>7.472237992620606</v>
       </c>
       <c r="E19">
-        <v>13.89055508023677</v>
+        <v>9.269453995757484</v>
       </c>
       <c r="F19">
-        <v>28.82149845707488</v>
+        <v>20.88378700824479</v>
       </c>
       <c r="G19">
-        <v>27.84221111652078</v>
+        <v>22.924993359262</v>
       </c>
       <c r="H19">
-        <v>13.96034977996182</v>
+        <v>8.275778464698325</v>
       </c>
       <c r="I19">
-        <v>19.7901299413585</v>
+        <v>13.83570964047323</v>
       </c>
       <c r="J19">
-        <v>9.854517615763204</v>
+        <v>5.564570568960101</v>
       </c>
       <c r="K19">
-        <v>13.1931348532272</v>
+        <v>20.19574010047467</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.46466837495623</v>
+        <v>16.49069323768924</v>
       </c>
       <c r="N19">
-        <v>17.36300975890413</v>
+        <v>12.25978240815412</v>
       </c>
       <c r="O19">
-        <v>21.14688215874783</v>
+        <v>13.87981038659713</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.244340300245135</v>
+        <v>6.046712043920133</v>
       </c>
       <c r="D20">
-        <v>9.982057950542478</v>
+        <v>7.55284671274125</v>
       </c>
       <c r="E20">
-        <v>13.88822082850587</v>
+        <v>9.328852588164674</v>
       </c>
       <c r="F20">
-        <v>28.8158964286967</v>
+        <v>21.05879077726977</v>
       </c>
       <c r="G20">
-        <v>27.84886364666187</v>
+        <v>23.19098730323667</v>
       </c>
       <c r="H20">
-        <v>13.9468842417937</v>
+        <v>8.278702695885743</v>
       </c>
       <c r="I20">
-        <v>19.78227480741447</v>
+        <v>13.93485163509149</v>
       </c>
       <c r="J20">
-        <v>9.84609025104603</v>
+        <v>5.55505355560541</v>
       </c>
       <c r="K20">
-        <v>13.35166074545102</v>
+        <v>20.55914707175542</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.5344578113303</v>
+        <v>16.79867572968304</v>
       </c>
       <c r="N20">
-        <v>17.35469666120589</v>
+        <v>12.24793384472414</v>
       </c>
       <c r="O20">
-        <v>21.13012366028376</v>
+        <v>13.94337343144271</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.400143725953599</v>
+        <v>6.375604496194496</v>
       </c>
       <c r="D21">
-        <v>10.01482872166276</v>
+        <v>7.821423178782326</v>
       </c>
       <c r="E21">
-        <v>13.88314423168829</v>
+        <v>9.533038077099835</v>
       </c>
       <c r="F21">
-        <v>28.80557674373521</v>
+        <v>21.66306188486754</v>
       </c>
       <c r="G21">
-        <v>27.88250137029771</v>
+        <v>24.10195751086626</v>
       </c>
       <c r="H21">
-        <v>13.90438852737514</v>
+        <v>8.297261439554592</v>
       </c>
       <c r="I21">
-        <v>19.76149312881866</v>
+        <v>14.28065597117874</v>
       </c>
       <c r="J21">
-        <v>9.819104207072538</v>
+        <v>5.526581255748073</v>
       </c>
       <c r="K21">
-        <v>13.87119463686322</v>
+        <v>21.73649511676965</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.76885227206982</v>
+        <v>17.79644659026029</v>
       </c>
       <c r="N21">
-        <v>17.32870809380544</v>
+        <v>12.21308693877764</v>
       </c>
       <c r="O21">
-        <v>21.07954359345435</v>
+        <v>14.17418646756037</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.498413757772483</v>
+        <v>6.58203089777551</v>
       </c>
       <c r="D22">
-        <v>10.03745389458067</v>
+        <v>7.995031505452315</v>
       </c>
       <c r="E22">
-        <v>13.88188347364028</v>
+        <v>9.669823884261101</v>
       </c>
       <c r="F22">
-        <v>28.80516787030503</v>
+        <v>22.069820992729</v>
       </c>
       <c r="G22">
-        <v>27.91288437093014</v>
+        <v>24.70950737631802</v>
       </c>
       <c r="H22">
-        <v>13.87866396976382</v>
+        <v>8.316187418070777</v>
       </c>
       <c r="I22">
-        <v>19.75209605922799</v>
+        <v>14.51604558363404</v>
       </c>
       <c r="J22">
-        <v>9.802456303642582</v>
+        <v>5.510690540345517</v>
       </c>
       <c r="K22">
-        <v>14.20055452761983</v>
+        <v>22.47354560429048</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.92176864989127</v>
+        <v>18.42115932906307</v>
       </c>
       <c r="N22">
-        <v>17.31316728259362</v>
+        <v>12.19414715361325</v>
       </c>
       <c r="O22">
-        <v>21.05076505938273</v>
+        <v>14.33815336392315</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.44629522272847</v>
+        <v>6.472636446335264</v>
       </c>
       <c r="D23">
-        <v>10.02526932116793</v>
+        <v>7.902563759377788</v>
       </c>
       <c r="E23">
-        <v>13.88236845927866</v>
+        <v>9.596519628221738</v>
       </c>
       <c r="F23">
-        <v>28.80480659121179</v>
+        <v>21.85166260096281</v>
       </c>
       <c r="G23">
-        <v>27.89590103812813</v>
+        <v>24.384174665221</v>
       </c>
       <c r="H23">
-        <v>13.89220607174597</v>
+        <v>8.305445931918465</v>
       </c>
       <c r="I23">
-        <v>19.75672837562027</v>
+        <v>14.38956037711884</v>
       </c>
       <c r="J23">
-        <v>9.811251188817293</v>
+        <v>5.518916048445087</v>
       </c>
       <c r="K23">
-        <v>14.02572666262286</v>
+        <v>22.0831252095303</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.84019260575626</v>
+        <v>18.09023140525391</v>
       </c>
       <c r="N23">
-        <v>17.32132977881135</v>
+        <v>12.20389584221198</v>
       </c>
       <c r="O23">
-        <v>21.06573257518261</v>
+        <v>14.24942534056376</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.241734822650385</v>
+        <v>6.04119248081592</v>
       </c>
       <c r="D24">
-        <v>9.981543022093396</v>
+        <v>7.548427913555702</v>
       </c>
       <c r="E24">
-        <v>13.8883385974447</v>
+        <v>9.325573085992072</v>
       </c>
       <c r="F24">
-        <v>28.81617208098329</v>
+        <v>21.04911838308524</v>
       </c>
       <c r="G24">
-        <v>27.84845584242412</v>
+        <v>23.17631339541304</v>
       </c>
       <c r="H24">
-        <v>13.94761337633012</v>
+        <v>8.278509987374118</v>
       </c>
       <c r="I24">
-        <v>19.78268507818964</v>
+        <v>13.92935926755813</v>
       </c>
       <c r="J24">
-        <v>9.846548039530036</v>
+        <v>5.555563267695319</v>
       </c>
       <c r="K24">
-        <v>13.34300334461443</v>
+        <v>20.53935496505181</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.53062510744387</v>
+        <v>16.78190250207997</v>
       </c>
       <c r="N24">
-        <v>17.35514586114284</v>
+        <v>12.24856617883958</v>
       </c>
       <c r="O24">
-        <v>21.13102244333454</v>
+        <v>13.93981867126126</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.006341365750074</v>
+        <v>5.539219520386331</v>
       </c>
       <c r="D25">
-        <v>9.939696524130152</v>
+        <v>7.159804805947062</v>
       </c>
       <c r="E25">
-        <v>13.90363773805988</v>
+        <v>9.048294496161368</v>
       </c>
       <c r="F25">
-        <v>28.85563109131682</v>
+        <v>20.23618542822977</v>
       </c>
       <c r="G25">
-        <v>27.83339651704417</v>
+        <v>21.93031091672838</v>
       </c>
       <c r="H25">
-        <v>14.01616425657591</v>
+        <v>8.276772204087765</v>
       </c>
       <c r="I25">
-        <v>19.82862411539255</v>
+        <v>13.47372287771489</v>
       </c>
       <c r="J25">
-        <v>9.888876239267125</v>
+        <v>5.606084836507747</v>
       </c>
       <c r="K25">
-        <v>12.56576901347881</v>
+        <v>18.73430080500755</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.19688487238862</v>
+        <v>15.25184888034603</v>
       </c>
       <c r="N25">
-        <v>17.39784463475124</v>
+        <v>12.31234966563031</v>
       </c>
       <c r="O25">
-        <v>21.21974546932175</v>
+        <v>13.6603862850062</v>
       </c>
     </row>
   </sheetData>
